--- a/Assets/island/doc/设计.xlsx
+++ b/Assets/island/doc/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24540" windowHeight="15360" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="15600" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="岛" sheetId="2" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
   <si>
     <t>tileSize:2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -773,6 +773,10 @@
   </si>
   <si>
     <t>ui设计</t>
+  </si>
+  <si>
+    <t>ui，出征页面：目标点，玩家信息，距离，消耗资源，耗时，舰队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3916,9 +3920,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B33:B38"/>
+  <dimension ref="B33:B40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -3952,6 +3956,11 @@
     <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +3979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/Assets/island/doc/设计.xlsx
+++ b/Assets/island/doc/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25240" windowHeight="15600" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="岛" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="TODO" sheetId="5" r:id="rId6"/>
     <sheet name="随记" sheetId="4" r:id="rId7"/>
     <sheet name="海的名字" sheetId="6" r:id="rId8"/>
+    <sheet name="国际化（多语言）" sheetId="11" r:id="rId9"/>
+    <sheet name="邮件" sheetId="9" r:id="rId10"/>
+    <sheet name="奖励" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TODO!$D$1:$D$21</definedName>
@@ -195,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
   <si>
     <t>tileSize:2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -776,6 +779,316 @@
   </si>
   <si>
     <t>ui，出征页面：目标点，玩家信息，距离，消耗资源，耗时，舰队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.一键领取奖励，全部删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.写邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.删除的数据全部移到别一个表中，不要真的删除掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.删除的邮件全部移到别一个表中，不要真的删除掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.写邮件、回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件内容表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个是邮件内容，另一个是玩家与邮件id的纵表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家与邮件id的纵表</t>
+  </si>
+  <si>
+    <t>玩家id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：未读，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未领奖，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已领奖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>状态，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：未读，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未领奖，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：已读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已领奖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型，1：系统，2：战报；3：私信，4:联盟，5：客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.多语言支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.后台可以发邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持多国语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型，1：系统，2：战报；3：私信，4:联盟，5：客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要分别展示收件箱和已发送</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,7 +1096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -863,6 +1176,18 @@
       <b/>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCE9178"/>
+      <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCE9178"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1023,7 +1348,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1277,8 +1602,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,8 +1675,9 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="265">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1466,6 +1804,12 @@
     <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1592,6 +1936,12 @@
     <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3027,6 +3377,259 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18">
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="D32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="18">
+      <c r="D39" s="35" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C43"/>
@@ -3922,7 +4525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B33:B40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4533,4 +5136,45 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Assets/island/doc/设计.xlsx
+++ b/Assets/island/doc/设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15600" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="15540" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="岛" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="国际化（多语言）" sheetId="11" r:id="rId9"/>
     <sheet name="邮件" sheetId="9" r:id="rId10"/>
     <sheet name="奖励" sheetId="10" r:id="rId11"/>
+    <sheet name="道具物品" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TODO!$D$1:$D$21</definedName>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="218">
   <si>
     <t>tileSize:2x2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,14 +824,6 @@
   </si>
   <si>
     <t>1.一键领取奖励，全部删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.写邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.删除的数据全部移到别一个表中，不要真的删除掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1089,6 +1082,102 @@
   </si>
   <si>
     <t>还要分别展示收件箱和已发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx:唯一id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type：类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attrId：配置id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num：数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pidx：玩家idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status:状态，是否已经领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pidx：玩家idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date:使用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id：配置id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc:使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pzidx：礼包idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品使用记录:itemsUse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的背包:items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type：类型,1:资源、经验值等（领奖就直接把数值加上），2：道具，3：图纸，9：宝箱(嵌套礼包)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家的礼包:rewardpkgPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励包属性:rewardpkg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pzidx:奖励包idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type:类型：1、直接打开；2、随机掉落掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼包（宝箱）：box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon:图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey:名字key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descKey:描述key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,8 +1437,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1677,7 +1774,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="265">
+  <cellStyles count="273">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1810,6 +1907,10 @@
     <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1942,6 +2043,10 @@
     <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3381,7 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -3414,7 +3519,7 @@
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -3434,7 +3539,7 @@
     </row>
     <row r="11" spans="2:3" ht="18">
       <c r="C11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -3459,37 +3564,37 @@
     </row>
     <row r="17" spans="2:4">
       <c r="C17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="C23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="C24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -3514,7 +3619,7 @@
     </row>
     <row r="29" spans="2:4">
       <c r="D29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -3544,27 +3649,27 @@
     </row>
     <row r="36" spans="3:4">
       <c r="C36" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="3:4">
       <c r="D37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="3:4">
       <c r="D38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="3:4" ht="18">
       <c r="D39" s="35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3581,45 +3686,186 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>171</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>173</v>
+      <c r="C6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="C9" t="s">
-        <v>176</v>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4037,7 +4283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4932,8 +5178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5150,22 +5396,22 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="C4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
